--- a/Assets/Data/ItemsList.xlsx
+++ b/Assets/Data/ItemsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Projects\Terradome\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7DED35-C587-4453-8785-A49A45D9E0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6ACCA5-81E2-4161-81ED-8CC562B6B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{750EDC57-956F-46A2-962A-177188B7884A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="128">
   <si>
     <t>Item:</t>
   </si>
@@ -264,6 +264,9 @@
     <t>Sand, NaturalGas</t>
   </si>
   <si>
+    <t>Robotics</t>
+  </si>
+  <si>
     <t>RoboticParts</t>
   </si>
   <si>
@@ -343,6 +346,78 @@
   </si>
   <si>
     <t>Polymers, RareMetals</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>CrudeOilCracking</t>
+  </si>
+  <si>
+    <t>CrudeOilExtraction</t>
+  </si>
+  <si>
+    <t>AromaticSynthesis</t>
+  </si>
+  <si>
+    <t>CO2Scrubbing</t>
+  </si>
+  <si>
+    <t>BasicCircuitry</t>
+  </si>
+  <si>
+    <t>AdvCircuitry</t>
+  </si>
+  <si>
+    <t>AlgaeFarming</t>
+  </si>
+  <si>
+    <t>CO2, Nitrogen</t>
+  </si>
+  <si>
+    <t>Androids</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Fission</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>SiliconExtraction</t>
+  </si>
+  <si>
+    <t>UraniumExtraction</t>
+  </si>
+  <si>
+    <t>MineralEnrichment</t>
+  </si>
+  <si>
+    <t>UraniumEnrichment</t>
+  </si>
+  <si>
+    <t>FruitVegFarming</t>
+  </si>
+  <si>
+    <t>Ranching/Synmeat</t>
+  </si>
+  <si>
+    <t>WaterReclamation</t>
+  </si>
+  <si>
+    <t>Domes consume less water</t>
   </si>
 </sst>
 </file>
@@ -390,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -398,11 +473,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -418,6 +502,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,583 +818,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FAC8E0-C200-48FA-BCFA-184CF630A61E}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="25.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>97</v>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
